--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/34_Giresun_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/34_Giresun_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1876C5B2-3F74-4AE2-8DBC-3667D06D4DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28CDCD4-8369-42F2-A20C-AEA56EFC52DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{28E7064F-B1B4-48C7-96F4-EF155BDDE188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{22F97481-A2A3-438D-9405-B47518EB622E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A2522E25-AB06-4B68-A4C2-16AA428760AF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F0EE5E6A-7E32-4411-A6B1-62C0308B8780}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E0D206FD-F334-4190-8A7C-AF3DB04B5819}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1A94D543-138F-4065-836C-119300BACA08}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6E91A0FF-8A43-43E2-A646-80804969C96E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{283497C2-F251-49C4-BD54-1F85D4FE3044}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A85892F9-B256-447E-BB88-D00849839103}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8D18A97A-1F57-4666-8450-B8A3AE49698B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9EDD2B3D-C369-4556-9F79-DBFC41D6E162}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{941C1BB1-1214-419B-95A3-27D7094615B6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{239701EF-74B9-469A-A814-6112DD2AF1FA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8843DBD7-C634-4076-84D0-75DE6074E263}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{609B7D9D-5754-4085-8ED0-6DD4A24DED48}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{71928A28-CF01-467F-9D33-1E2F864DB989}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9EA07-820E-4215-AAF3-36E677ABE6BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E215B8-5C54-4E3B-8430-8616D12952E6}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2565,18 +2565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC9B82B4-2148-4C55-AAB7-0F38B588AB25}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BDF7B86-CE45-4D32-9695-AB8F90AD08C8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E88EFC71-C033-4551-AF37-2EA1C5A094DD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{14C21DD1-F5F1-43EE-AE16-AD7D0FD418DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{090702F0-463A-48DB-AE45-3FE32449B53D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C653938A-62D9-4173-B1FC-3DB613355F55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8896465E-07BD-4C24-AC7E-DB5ED082CCB7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67696EBB-DC4D-4395-8F0B-BA8A9547D584}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{330175FA-4FB8-4A51-93CA-FEE6977F5604}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CEA5C4A-3829-496E-B5FF-9CE3428A9CF0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9581A64-2D28-4ACB-8C05-6AFE3BBBE1EA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB75B23C-67D4-4F62-B04D-8EBBB1C01DB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CC0AAFB-AACE-48B5-A9D7-AEC2EFD3863A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB98670E-3D1A-4F2C-BCF4-0C3866202442}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9401A642-218F-438A-B082-349167A4E33D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07091BEE-11A6-4796-8287-2F9C82EF9180}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D608031-E392-4B3B-A98C-C0383D4BB484}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFFEEEF8-ABE3-42C2-A120-49FD9EC0111A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{782AA2EE-7893-4E4F-B064-D16F1DFDDBB6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{607DF4E4-9929-4354-87AC-4F046936E903}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88361F40-915C-4814-BD27-FA0CE5807A53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44FB0DE5-9260-4F56-9506-85F0BF7E2E54}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC74664D-B61A-4ECB-B8B3-4FF8CDF6987E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{384137D0-0B66-4566-B8C7-C4D319508126}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA37BCAB-5924-42EF-9C31-F1FB2E545D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6627709C-B8DD-4F92-8761-D99FA8DBDCC1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3821,18 +3821,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{081EB955-E7B5-4B47-96FA-5480F6A6FC4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40A5AA66-819E-4F5A-A695-4646B9F80F8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F238B657-6B47-486C-8B64-C0897A4E0A2B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58681044-D264-4274-87DF-DD1D15FDFF25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9399AE47-9A61-482B-86F8-9879B0580D70}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18A80004-CD9A-4525-BD0D-55EAA8135C56}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D3F9EC4-2C72-4776-80DB-E66A957BFE04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2BECCD2-F9B6-46BF-AB7A-65126B1BE45E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1F39C08-F4B8-49DC-BC02-6C591D38891A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{41B973F4-8D4D-4D20-8AE0-CE7E5209649F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDFAA71D-1258-43A7-97E6-34C3B9FA3044}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C017D347-9634-45FF-B4F2-E005EDAA22D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC6D0D25-1851-4BDA-9AD6-4C48DED26E8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1C15664-458E-46B1-BBA5-92A1AE1FCA31}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{074BE13C-9568-4302-B457-6C8B330DEF63}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{59A92BE6-8485-4DE3-A653-7B7A5E47B4CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E66CE561-6C7B-4144-8710-382A82F8235C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5618856F-E52E-41A0-B58E-715489AC4EFB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3864FD05-F3DD-4BAB-9507-B8024A7CA737}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{692DA1A4-B36A-418D-9879-8DD6965CB2AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{235491F9-3167-4336-99EA-8F1DC4F14D00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8B53EF4-DCA8-451E-A276-A09AE3E908B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A0F1507-758D-4071-B6B1-889BAF18AF70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE7FD613-6CB5-4016-BAE7-8CE495271320}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3845,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB16AA6-2613-4E75-964D-133AFABA4AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC7ED89-DF29-4BCB-A320-8A14D3E9686E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5077,18 +5077,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{251EE2D0-9614-4E07-B256-AFD78B7ECC15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{183BF20B-9CDC-4B97-92C2-07154F735F55}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8753CD17-336F-401B-8B4F-15F6E71701C3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE00360A-FEA1-437E-B460-7242B864FDC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4071E6F1-7898-4728-9E2B-18D1B99D848D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CEEA1B0-FB43-45D6-AB5A-59462EE7187E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D456CB2-359A-4135-B005-CB619B0826AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13490C6B-5E6D-4D85-8D68-97E8FE98C90B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F5A76EF-0904-4891-B40D-32587B87FBB6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30D27F00-46FE-4FED-AEBD-2D9B6E70E105}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F01E598B-42E6-4217-A433-85B9C3D11456}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F27F7641-B225-4BEE-85E9-877CDFE43B13}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B2D32B4-9A12-4944-9ED1-CFADA57085E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5077ABD-E8DB-4953-AC99-D6CA269C2483}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C771081-33A2-4117-97CC-F0845C658A0F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB94C19A-B1F4-40ED-B7D8-F75DC52A3DEC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71EBE5ED-4CB3-4763-88E5-291B1BA28CAB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E643A8C3-5F92-45C7-9146-3CB2BE61429C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AFDE776-A4BF-42DF-89FD-24BE5E2E0729}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A982BD7-EC4F-4F20-8EF0-D539BC308EE8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8048897-8DC7-42C9-A20B-CDBC8BB41014}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4FCCBC62-9586-47FF-9FB9-4F453B3B48BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7E07397-EF9C-49DE-93B9-A0F0611287CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8ED9B1B-3185-4237-998B-E9ED4957E221}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5101,7 +5101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91719E8-0343-40E5-8D69-17A3239ABCCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB60A25-7B70-40E0-AA9C-D7C19673800E}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6329,18 +6329,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C454EA6-DDD3-48C0-AACF-AA0D5A652168}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66289AD6-01ED-47AB-A392-9CC3C31985C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{758DE49C-6D20-4505-A35E-543D6B29D9D2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5D1D90D-9D39-4B94-9015-6FA648AEC0F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FE77F5D-8819-414C-875A-A6984BCE5449}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0FA4E42-31CB-4935-BB16-84A7948DB2F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66736CDE-E51F-45D3-9529-EBAEA88817AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A68B61FA-932B-481D-9D5A-3F1484CDA3CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C62C8B30-937A-4722-83E8-337866C59EA2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEC14A10-68DE-4DF7-9DE5-27374D97D6B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4206BCC-7CE9-4508-B07E-87B7D2B1406A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9BC7221-275A-403D-9B46-95ADC4D2DD25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF5B9074-C086-4F3B-B3E6-D8920C3608D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{532F1E7B-02C5-4694-8B44-B5F786ED763F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCFBCC5B-5012-48A0-8346-2D617EC803CF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7263CB31-2660-461B-80E1-C7A7C3111640}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D23BB08-FD6E-4318-A20C-2F209F9886BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33E3C1F2-9DF1-4A86-873E-1D439F8985AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F96BE807-1671-4A7E-AA89-2B6609C12D50}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55AEAEC6-140B-4EC9-BE6D-4589F7FF1C72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3776B668-A505-4C56-AC5F-59EB5B6755BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D722A050-4A04-4EB2-804C-3FA00A7F66F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB1F413F-A637-4EC8-8C71-4096E8D5C950}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C6FF5E4-85BA-4C9C-AB7F-EC0547DC5058}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6353,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB1CEB0-CE97-4929-8A80-AE6E6082E482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0A9F4-F31D-45B8-9468-F8A73F7ED5AB}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7605,18 +7605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11DC4209-D130-4998-ADB1-1605B31BA86B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1FE99DE-8224-4DBE-93B3-B7F528F0DA1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCB8B33E-30A8-434F-B257-A2771A56444B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36EE542D-1669-46FC-A020-F90408364326}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A466532-BC3B-4488-BAF8-30FFA2852CCC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A32BBA9C-D56C-47C4-BE49-3F4707DDC05B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D594E90-E5EA-4282-9290-D0DEC88A75AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69356DDE-7EDD-409A-B4D0-066BFFED6FF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A494F22-BAEC-4DC4-80AC-A783DCC0628E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{903F6388-23E7-40EC-B8BB-EF2CAA26316E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7BEE651-56DE-4A17-A159-B6EF73F53073}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A979C0C-411D-47FA-838C-BD3D862F8A41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3833D03F-5816-4338-8DAE-BFB627A459CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C7C0A67-E399-485C-AF3F-9CA9455D92DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8041EBBC-493C-4F56-B719-0E4E7D496FF0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4202D845-ECD0-46CF-951C-AA4B4D6234E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{525C0672-FB56-4F68-9B63-511452858D03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9239AB15-28B7-47CB-9748-276F68530DDA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A919AEE9-C0D2-417C-826D-04B5FC8770B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10A80416-7748-4044-AAEF-C94B993C1035}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{830412C2-D815-4088-8AC9-7C0A735600C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D004E029-E4B5-4466-B8FF-A9B7FB720557}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A157EAFC-317A-40EB-A4DD-6587D7711AC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBE0CBDD-2834-486B-BA28-C033C220D0B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7629,7 +7629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E4E625-A7CC-44C6-9D28-09CC068363A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B5F000-71F4-4241-B733-71A27EC506C0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8877,18 +8877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52088D61-1893-4BFD-84E4-01E2888DA08F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC472014-DD82-49E9-8891-AC1D03EDB6B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D253291-F8CA-4700-A709-2F16A7A709AE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C66F832-D1A0-478F-8742-EF53943326B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A02F21F-6788-4C3C-B8BB-3E16B98EF872}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{147D1CF7-1EE3-4936-923F-21C512EC0F19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E33F5227-3AB8-476D-A483-61552039FC0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DCB63EA-0BC5-4170-8FA4-D01A8427839E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B69B9B0-709D-434D-82C9-4300D8317301}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4ECAA4B-FB06-40BB-9D24-CBA06B437A13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E94FC33B-4693-42D1-BEC8-6DA48CC4BBF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AB0ED77-7466-4095-8110-86D15672DABB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BFF134C-8CA9-4940-883A-1323D1AFF6FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E80A2850-C47B-48C2-8B1F-8CF1CC6A2B14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4591BE6-88BE-46EB-9E9A-2F5B5E02916C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E5D0AE4-0536-4AFC-B43A-7797BD99293A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{265D4609-2002-4722-B63E-D5AF418CC216}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B81724FB-C2BD-43B9-9E52-CB231B71F46D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D3BED30-3C94-4C9D-A68D-551E6593ACBC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17FEBF9C-458C-4ED3-A8A5-6C69998E2124}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{166C8C9E-015A-44A4-AC42-D93E1DC396E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A065F513-A1B0-403B-9B26-577E90FED15A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56328E88-9285-4C34-A9BF-56E54A3CB0AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67F22C81-ED8C-4C74-B3EE-67D3EBE03212}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8901,7 +8901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6677E05-063E-4472-B337-347BA8D86326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2571C-7F29-463F-BB8B-4D7227E28AFD}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10149,18 +10149,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B91EC607-DC99-4DC5-8AD7-0F6F1BEB64E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDEA5170-6A36-43CF-90D9-7315577CB2AB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74E9EB67-72A6-42B9-B070-1E7C5A25B96B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99275F24-750A-4063-8A79-7E2AADFB0016}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A111758E-630A-4167-A519-FCB9606E113A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F76C1F1-4BDC-4018-8F92-8AC9C0EA84C2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B10F255-4507-447D-ACB7-E638F7667DC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D7A272B-9D69-4AFA-830A-BBC3B8568E08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FF6EEB5-88AD-4281-84BD-429FAB6097C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13934C3A-4999-44C5-8885-1700C876E169}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC31864A-65BF-4DE8-89D2-57F19A64CD45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B40D21A7-E9EB-4EAE-A623-F92D5428ED1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F58E8CE9-1E1C-41DF-B563-D88FE2137DB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{612E2652-A3A0-451A-AF86-4A7B3F07B2E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F92E4DB4-000D-4CE1-A113-DC269D36B42E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8EBFADB-7074-4C3B-B878-B8166B4EDF05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A967B11E-5728-4231-9143-7B9918D5C409}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74A3F7D9-163D-4B9D-AA7B-14AD239AE5BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBDBD6DC-D151-47ED-8094-11ABFBE3230D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{298076AC-D7B9-452D-AFBF-4976C9CAD5F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F05D23C-BF41-4570-AF48-D0BA548B9117}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{732D96D7-3394-4D47-92C3-58F300292764}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0741F16D-0409-4ACB-AC15-471D55CB2B78}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B23AA29-4D97-46D2-8747-6D9C35697029}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10173,7 +10173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBC505-3F50-473B-922A-5F3C6A6F2AFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BC15A-D597-4960-A410-376703F7027F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11421,18 +11421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46CD3839-1734-438A-A1DA-EB70392BBA7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DF79D3F-84CE-4BBA-8AC5-226E44E575FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{178EB370-E412-471C-8503-105743192303}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{159CB20F-1497-4B5C-B341-109FEC913922}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDDBBCA8-0980-4A8D-9A43-EE4BB31B8556}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99CAC3C3-818B-499D-BF2A-F125A8364333}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39B02656-016A-49E3-B5CA-66D5C235AB78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B982BED-3E78-4F0A-A9E5-A3925BB764A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A62C003-9349-41A0-936B-2F0D6B30DD46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9347DF1F-8651-48C3-AF9D-D6B246476B8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EAF8142-13DE-424D-9523-1198A915C43B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A018043-26D5-4AB2-85CD-3140FABF4F7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2289C6AE-9F28-4A71-B0B5-F611C8659316}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0CF4320-4127-407E-A2DA-425485A0073C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE9F56FC-9EFB-449D-970F-2FC933254369}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97EF6A42-F141-4AF2-A84D-8F325A3FA4A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE379FB-E269-4E64-A9A3-23B04A68252A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{491FDFFB-8347-4927-A3B2-CAD2B53B1989}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B67948E7-DC5C-4395-955B-FED22DE7D276}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF1C41AB-C79F-40D5-B3AA-3D54F404861D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0312A9F3-DD49-4CB0-A884-35EC1DE2FE72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A986432-D8F9-4F0A-AC5B-567E2F7FD1DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63CAFA8F-FB49-4A0A-A4C2-91CA7952332C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2FA7C668-1A99-4334-9C97-CB84BA018161}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11445,7 +11445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABBBE22-5F5E-40CC-A0DC-4DCDB6ED9560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7B2B4A-26F4-49B2-B42D-B2896F96DCF2}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12685,18 +12685,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DDF3ABC-0D78-43A6-A75E-E00C1B5DCC22}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C05FFF88-883C-4A84-8769-987C0FAEA97E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{827AA6B4-44CD-4E8C-B134-7A54FD24C6D9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{768D5CC2-1743-4734-A04C-8203483B2183}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{843835CA-BEF0-4C9A-A0EF-C1DCBF742A38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DD90801-7EA2-4646-BBA3-7D2DD382EAD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50D94201-1405-4316-B25E-295E34155E0B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{835AAAD6-BDD2-4FBF-B749-DAB6C1137B25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67548E64-863A-42B3-85D9-C10BB40C9655}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{33545BE6-FEAE-4833-8FF6-1E83ACB12893}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D852852E-51BE-4A3D-A3DE-3C2DF643B76B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6569DEE-0982-49B9-BE2E-7095EB7EA305}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFC1AC6C-E531-4768-87CA-36F359796227}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{083FA7C5-90E3-4E15-AFE9-60F0AB9CC65A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF50F1E3-BC89-4F34-8CDC-F0DA38C5AE9B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7322FD4-3998-4F89-BF02-C29B72ABC1A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{213A3171-8EF6-4EF3-981F-B81E808287AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BDF6D5B-A84E-472F-87A5-6995369FDEBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BED6B737-7740-4925-B84D-1424E6CA3E1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13AF8B11-F10D-47B9-8F72-139D8EA11E94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55C1AE82-AB27-4134-B217-9C04F963C810}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E4D8286-9472-4AE6-AE6E-D4305C66E814}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2013FC68-9991-4361-A9E9-E3A23D36C79E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{308BA57B-BDA2-4BE8-9F5E-2284C6EC1CA0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12709,7 +12709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018B5240-074F-4031-92DA-463F6D124BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58F19D0-01DB-4C25-B9B4-076F873C4B08}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13949,18 +13949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23149193-919A-400D-9B16-1AE102B1D875}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{943E9B83-28FB-40D4-9A39-D3028CD51DDA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CE673BD-EA2F-4FD9-AAD2-4EC1F3767AD6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6A278D7A-D519-4FAE-B9BC-4CFA242FC8B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5CE11F9-5963-4CC2-9BEA-0F19A950731F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3EFB5444-ABA3-4EA2-B344-827B833EF3ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55E926FB-A83F-4AAF-BB84-1D47B635F12A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B4F822-81F7-476C-8089-E663AA1CDE78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB5623CB-0897-4757-93C4-2A5A5E438188}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EFC7B90-F062-48E0-9194-2F5B696A60D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48E97693-AAC8-43A6-9490-AD28EC05A760}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29A67691-0F43-43F9-823A-D0333E6158FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DC86F7F-6413-41C1-A3D8-38EA6BF48199}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A8E9DB8-76D8-400E-9B47-E9CF6488CCFB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31A261D7-47ED-4444-9379-FA31D4986B16}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED05CB17-8BFC-4C38-99DA-BC45B001CA60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B28DFE9D-FD15-45EC-A2B3-752E19398F6F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C117F97F-B7FA-401E-BF28-8B105F11F9E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25BE7077-1227-473A-A83A-CDCF15E2C718}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49CEE14E-E6CD-4658-B87D-2E42B17C3C1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4B7BE4A-11BE-48C2-9D92-5F5C8EB1658D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30AE22A3-F857-4F59-AECD-464759474270}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F659A8F-D34B-4777-9CC7-47E02BCFB342}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F40AA6AC-AC20-4006-BF0D-4DECDA13D4DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13973,7 +13973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88707EE9-C74D-4EFA-BF19-D36B5E9751C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D47524-A41F-41B1-BD4D-B289A0A21B07}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15209,18 +15209,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C2E97A2-4EC3-480B-AEFD-31501F5A4893}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{364B523E-D262-4CD8-999F-C393B2DAD3C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0069372-29F8-4B5D-8399-D8548928F458}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E35B6899-B784-4997-9DE2-877BC1F68114}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BAD21877-E33C-486C-A7AC-A206D8A79252}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0458EB95-B9D6-4903-BCEB-5FE49791D769}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BEC2BC7-EF9C-4D81-8FCE-79B60BC24280}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6E57764-2CBE-43AD-BC46-F03CA477FD18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F06070D1-1344-4521-BB5B-61FFC1772D5B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CE9E0C7-6DF9-4638-988B-2C08B70865FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE9D55DF-5B10-48E9-80CB-4E82EEA2DE95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FC531AD-C287-4A05-8C46-F3439A08C93A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C86C41A9-6641-4EA6-9F43-AE19C550D006}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D8C35B0-910B-4B65-B7C4-095BA374B3B1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFB6296D-8E23-4D32-957D-33C9C455DBE5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04EA0505-54DF-445D-AC89-B6E92BC3B7DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8603119-129D-46C1-8246-3F73D9FDAB9C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F2DD244-D7C9-4616-AE99-D3EE2DCE2358}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F36BE69-C160-4838-8282-E751AD8F9855}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8439307A-AB32-4954-A5AB-AC15EBFE4E9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B056939A-4F00-4821-B859-3E25616A99FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3B02801-3331-412A-A022-5683F8195FF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34766F5B-D14A-41C5-95C4-AF60E58E23D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{703B7118-2C28-4A82-97E4-C9B6E15B71C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15233,7 +15233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76BA3BC-3008-4ACF-8AF3-EDE406C4D0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE703113-680B-42F0-BEF1-2E236CADD918}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16469,18 +16469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F84EC912-CC93-4092-AE2D-074A2595D34F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D75E386D-5FC1-4568-9CA8-D74B8C1C225B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C1511F2-3D04-42D2-B25D-B6D2FB3BF003}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{720C594B-5FF0-4A6D-B584-F780989DC08C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D19633C4-9ABD-46EC-B59C-C8AC2A3CF26D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F15C7876-4698-45F7-A0BE-323C3A2EBE97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1427FB69-58C7-4827-91C9-6AB089543601}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{097040F9-A441-4D5E-9418-B79FB1D8A5F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0341E909-951B-4E8B-B536-2FBF2F55EA67}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C874675-258F-45C5-9684-B09C3A9FF1AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{492B6886-2FC8-498B-B437-E2A8225AE74C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{795D362B-B713-41F3-AF63-8F993DCF0BD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75674B53-5F2D-4D87-ABEB-D65728200E15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E410E6-896D-43E7-BB2B-D772DD94BDB9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{930A770B-79B2-4D5D-93CF-B697F4F552A7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10A3D982-C2E6-4E1B-87DC-CD9189800DBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E6F5048-0A44-47DD-89A9-0B5B53A5B622}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F07B3F16-AB0B-4358-BFB0-8391375CA3A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20BEE1BF-63B1-4181-A3A5-5FA8E41E2CD2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6DF7975-5809-49F5-B7FA-68C217E7127B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69FD075E-9341-4808-B90F-1EC7C6FFFF76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{809B62C5-DB0D-4EDA-82A5-3D77BF141FD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB74215C-F86F-4A8C-BAA7-FA0C98F4FCDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{886067E6-EEDE-4A02-BEBB-E9A32064A196}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
